--- a/app/_misc/pdc.xlsx
+++ b/app/_misc/pdc.xlsx
@@ -438,6 +438,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -458,20 +470,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,14 +825,14 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -880,14 +880,14 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -908,7 +908,7 @@
       <c r="F6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -928,10 +928,10 @@
       <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -947,7 +947,7 @@
       <c r="E8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -963,13 +963,13 @@
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -978,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>50</v>
@@ -1002,15 +1002,15 @@
         <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="14" t="s">
@@ -1027,25 +1027,25 @@
       <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1057,7 +1057,7 @@
       <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1078,7 +1078,7 @@
       <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
